--- a/20.開発/40.機能一覧/【eternal】機能一覧.xlsx
+++ b/20.開発/40.機能一覧/【eternal】機能一覧.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/Google ドライブ/eternal/20.開発/40.機能一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eternal\documents\20.開発\40.機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0DF0B-12E4-466D-8AED-BB16CC09EE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">機能一覧!$B$5:$J$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -189,10 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TBD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トークテーマのランキング表示</t>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
@@ -251,22 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トークテーマを評価する。5段階の星評価。</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>評価を基にランキングの生成</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -794,6 +775,57 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマ詳細</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークテーマを評価する。高評価or低評価で評価する</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウヒョウカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>テイヒョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -801,7 +833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,48 +1301,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:10" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="22.5" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1336,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="5">
         <f>ROW()-ROW(B$5)</f>
         <v>1</v>
@@ -1357,13 +1389,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="5">
         <f>ROW()-ROW(B$5)</f>
         <v>2</v>
@@ -1376,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -1385,7 +1417,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <f t="shared" ref="B8:B27" si="0">ROW()-ROW(B$5)</f>
         <v>3</v>
@@ -1395,87 +1427,87 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1483,19 +1515,19 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1503,65 +1535,65 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1569,19 +1601,19 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1589,19 +1621,19 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1609,45 +1641,45 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1655,41 +1687,41 @@
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1697,83 +1729,83 @@
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1781,44 +1813,44 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:J5"/>
+  <autoFilter ref="B5:J5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
